--- a/CO2 heat pump details.xlsx
+++ b/CO2 heat pump details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\UCSB\District sytem - Engineering model\District system - Engineering model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21AA97BD-EFEE-4045-BD58-D327D66DC74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669A9E7A-04F5-4A47-8CE4-53365E02AD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAFBE35E-B994-453F-AE57-8E6E76AD9A31}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{CAFBE35E-B994-453F-AE57-8E6E76AD9A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>CO2 Heat Pump
-Leaving Hot Water (°F)</t>
-  </si>
   <si>
     <t>Entering Hot Water (°F)</t>
   </si>
@@ -73,6 +69,9 @@
   </si>
   <si>
     <t>Combined COP</t>
+  </si>
+  <si>
+    <t>Leaving Hot Water (°F)</t>
   </si>
 </sst>
 </file>
@@ -483,48 +482,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889B11F6-C3D3-4570-9FE1-3B772AD1D7AA}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
